--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for recording findings about stroke onset circumstances (In-hospital, Wake-up).</t>
+    <t>Profile for documenting clinically relevant circumstances of stroke symptom onset (e.g., wake-up stroke, in-hospital onset). The circumstance is represented by Observation.code (bound to StrokeCircumstanceCodesVS); the presence of the Observation asserts that the circumstance applies to the index event within the associated Encounter.
+The profile supports linking supporting evidence via hasMember (e.g., Observations capturing last-known-well time, symptom discovery time, or other onset-related details) without overloading the circumstance code itself. This profile intentionally does not encode onset timestamps in the code; temporal details should be modeled separately for precision and auditability.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for documenting clinically relevant circumstances of stroke symptom onset (e.g., wake-up stroke, in-hospital onset). The circumstance is represented by Observation.code (bound to StrokeCircumstanceCodesVS); the presence of the Observation asserts that the circumstance applies to the index event within the associated Encounter.
-The profile supports linking supporting evidence via hasMember (e.g., Observations capturing last-known-well time, symptom discovery time, or other onset-related details) without overloading the circumstance code itself. This profile intentionally does not encode onset timestamps in the code; temporal details should be modeled separately for precision and auditability.</t>
+    <t xml:space="preserve">Profile for documenting clinically relevant circumstances of stroke symptom onset (e.g., wake-up stroke, in-hospital onset).
+**Primary use-case**
+- Capture onset circumstance classification for eligibility reasoning, protocol stratification, and reporting when onset time is uncertain.
+**Representation**
+- `Observation.code` bound to StrokeCircumstanceCodesVS.
+- Presence of the Observation asserts the circumstance applies to the index stroke event (within the linked Encounter).
+**Typical scenarios**
+1) A patient who wakes up with stroke symptoms would have an Observation with `code` = wake-up stroke code, linked to the index stroke Encounter, indicating that the stroke onset circumstance is a wake-up stroke.
+2) A patient who experiences stroke symptoms while already admitted for another reason would have an Observation with `code` = in-hospital stroke code, linked to the index stroke Encounter, indicating that the stroke onset circumstance is in-hospital onset.
+</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-circumstance-observation-profile.xlsx
+++ b/StructureDefinition-stroke-circumstance-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
